--- a/outputs/spydefi_analysis_enhanced_enhanced.xlsx
+++ b/outputs/spydefi_analysis_enhanced_enhanced.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
   <si>
     <t>Metric</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Other Wallets</t>
   </si>
   <si>
-    <t>2025-05-22 21:07</t>
+    <t>2025-05-22 22:03</t>
   </si>
   <si>
     <t>channel_id</t>
@@ -87,9 +87,6 @@
     <t>2222968620</t>
   </si>
   <si>
-    <t>2353208529</t>
-  </si>
-  <si>
     <t>2177594166</t>
   </si>
   <si>
@@ -99,18 +96,18 @@
     <t>2017857449</t>
   </si>
   <si>
+    <t>1655443406</t>
+  </si>
+  <si>
     <t>1869537526</t>
   </si>
   <si>
+    <t>2051055592</t>
+  </si>
+  <si>
     <t>1508785153</t>
   </si>
   <si>
-    <t>2051055592</t>
-  </si>
-  <si>
-    <t>1655443406</t>
-  </si>
-  <si>
     <t>1730838033</t>
   </si>
   <si>
@@ -120,10 +117,13 @@
     <t>1693174179</t>
   </si>
   <si>
+    <t>1742476790</t>
+  </si>
+  <si>
     <t>1915321527</t>
   </si>
   <si>
-    <t>1659455616</t>
+    <t>1671616196</t>
   </si>
   <si>
     <t>ENHANCED_ANALYSIS</t>
@@ -664,19 +664,19 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2">
-        <v>42.86</v>
+        <v>37.93</v>
       </c>
       <c r="D2">
-        <v>155.32</v>
+        <v>138.44</v>
       </c>
       <c r="E2">
-        <v>155.32</v>
+        <v>138.44</v>
       </c>
       <c r="F2">
-        <v>281.68</v>
+        <v>274.08</v>
       </c>
       <c r="G2" t="s">
         <v>36</v>
@@ -694,7 +694,7 @@
         <v>200</v>
       </c>
       <c r="L2">
-        <v>-82.31</v>
+        <v>-83.84999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -705,16 +705,16 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>38.46</v>
+        <v>46.15</v>
       </c>
       <c r="D3">
-        <v>240.88</v>
+        <v>192.62</v>
       </c>
       <c r="E3">
-        <v>240.88</v>
+        <v>192.62</v>
       </c>
       <c r="F3">
-        <v>262.38</v>
+        <v>261.61</v>
       </c>
       <c r="G3" t="s">
         <v>36</v>
@@ -732,7 +732,7 @@
         <v>200</v>
       </c>
       <c r="L3">
-        <v>-97.23999999999999</v>
+        <v>-88.41</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -740,19 +740,19 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>46.15</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>192.62</v>
+        <v>337.43</v>
       </c>
       <c r="E4">
-        <v>192.62</v>
+        <v>337.43</v>
       </c>
       <c r="F4">
-        <v>261.61</v>
+        <v>239.41</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
@@ -770,7 +770,7 @@
         <v>200</v>
       </c>
       <c r="L4">
-        <v>-87.75</v>
+        <v>-93</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -778,19 +778,19 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>22.22</v>
       </c>
       <c r="D5">
-        <v>337.43</v>
+        <v>362.49</v>
       </c>
       <c r="E5">
-        <v>337.43</v>
+        <v>362.49</v>
       </c>
       <c r="F5">
-        <v>239.41</v>
+        <v>214.83</v>
       </c>
       <c r="G5" t="s">
         <v>36</v>
@@ -808,7 +808,7 @@
         <v>200</v>
       </c>
       <c r="L5">
-        <v>-92.12</v>
+        <v>-94.72</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -816,19 +816,19 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>22.22</v>
+        <v>12.5</v>
       </c>
       <c r="D6">
-        <v>264.87</v>
+        <v>109.47</v>
       </c>
       <c r="E6">
-        <v>264.87</v>
+        <v>109.47</v>
       </c>
       <c r="F6">
-        <v>204.09</v>
+        <v>154.68</v>
       </c>
       <c r="G6" t="s">
         <v>36</v>
@@ -846,7 +846,7 @@
         <v>200</v>
       </c>
       <c r="L6">
-        <v>-94.05</v>
+        <v>-87.04000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -860,13 +860,13 @@
         <v>14.29</v>
       </c>
       <c r="D7">
-        <v>98.06999999999999</v>
+        <v>98.27</v>
       </c>
       <c r="E7">
-        <v>98.06999999999999</v>
+        <v>98.27</v>
       </c>
       <c r="F7">
-        <v>146.33</v>
+        <v>146.35</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -884,7 +884,7 @@
         <v>200</v>
       </c>
       <c r="L7">
-        <v>-85.14</v>
+        <v>-85.83</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -892,19 +892,19 @@
         <v>28</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>22.22</v>
+        <v>57.14</v>
       </c>
       <c r="D8">
-        <v>43.5</v>
+        <v>112.55</v>
       </c>
       <c r="E8">
-        <v>43.5</v>
+        <v>112.55</v>
       </c>
       <c r="F8">
-        <v>142.24</v>
+        <v>145.17</v>
       </c>
       <c r="G8" t="s">
         <v>36</v>
@@ -922,7 +922,7 @@
         <v>200</v>
       </c>
       <c r="L8">
-        <v>-74.15000000000001</v>
+        <v>-95.45999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -930,19 +930,19 @@
         <v>29</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>22.22</v>
       </c>
       <c r="D9">
-        <v>149.67</v>
+        <v>43.5</v>
       </c>
       <c r="E9">
-        <v>149.67</v>
+        <v>43.5</v>
       </c>
       <c r="F9">
-        <v>139.82</v>
+        <v>142.24</v>
       </c>
       <c r="G9" t="s">
         <v>36</v>
@@ -960,7 +960,7 @@
         <v>200</v>
       </c>
       <c r="L9">
-        <v>-91.64</v>
+        <v>-75.95999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -968,19 +968,19 @@
         <v>30</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D10">
-        <v>198.3</v>
+        <v>127.59</v>
       </c>
       <c r="E10">
-        <v>198.3</v>
+        <v>127.59</v>
       </c>
       <c r="F10">
-        <v>134.5</v>
+        <v>93.64</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -998,7 +998,7 @@
         <v>200</v>
       </c>
       <c r="L10">
-        <v>-87.73999999999999</v>
+        <v>-70.03999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1006,19 +1006,19 @@
         <v>31</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>127.59</v>
+        <v>3.24</v>
       </c>
       <c r="E11">
-        <v>127.59</v>
+        <v>3.24</v>
       </c>
       <c r="F11">
-        <v>93.64</v>
+        <v>88.36</v>
       </c>
       <c r="G11" t="s">
         <v>36</v>
@@ -1036,7 +1036,7 @@
         <v>200</v>
       </c>
       <c r="L11">
-        <v>-70.03999999999999</v>
+        <v>-48.3</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1044,19 +1044,19 @@
         <v>32</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.47</v>
+        <v>2.26</v>
       </c>
       <c r="E12">
-        <v>1.47</v>
+        <v>2.26</v>
       </c>
       <c r="F12">
-        <v>66.16</v>
+        <v>30.23</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -1074,7 +1074,7 @@
         <v>200</v>
       </c>
       <c r="L12">
-        <v>-46.33</v>
+        <v>-93.8</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1082,19 +1082,19 @@
         <v>33</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.72</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>4.72</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>40.47</v>
+        <v>21.58</v>
       </c>
       <c r="G13" t="s">
         <v>36</v>
@@ -1112,7 +1112,7 @@
         <v>200</v>
       </c>
       <c r="L13">
-        <v>-92.76000000000001</v>
+        <v>-23.42</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1120,19 +1120,19 @@
         <v>34</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5</v>
+        <v>4.17</v>
       </c>
       <c r="E14">
-        <v>0.5</v>
+        <v>4.17</v>
       </c>
       <c r="F14">
-        <v>10.05</v>
+        <v>20.42</v>
       </c>
       <c r="G14" t="s">
         <v>36</v>
@@ -1150,7 +1150,7 @@
         <v>200</v>
       </c>
       <c r="L14">
-        <v>-60.25</v>
+        <v>-47.41</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1158,19 +1158,19 @@
         <v>35</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>20.23</v>
       </c>
       <c r="G15" t="s">
         <v>36</v>
@@ -1188,7 +1188,7 @@
         <v>200</v>
       </c>
       <c r="L15">
-        <v>-70.84</v>
+        <v>-89.34</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1198,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1258,7 +1258,7 @@
         <v>200</v>
       </c>
       <c r="H2">
-        <v>-82.31</v>
+        <v>-83.84999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1284,7 +1284,7 @@
         <v>200</v>
       </c>
       <c r="H3">
-        <v>-97.23999999999999</v>
+        <v>-88.41</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1310,7 +1310,7 @@
         <v>200</v>
       </c>
       <c r="H4">
-        <v>-87.75</v>
+        <v>-93</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1336,7 +1336,7 @@
         <v>200</v>
       </c>
       <c r="H5">
-        <v>-92.12</v>
+        <v>-94.72</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1362,7 +1362,7 @@
         <v>200</v>
       </c>
       <c r="H6">
-        <v>-94.05</v>
+        <v>-87.04000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1388,7 +1388,7 @@
         <v>200</v>
       </c>
       <c r="H7">
-        <v>-85.14</v>
+        <v>-85.83</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1414,7 +1414,7 @@
         <v>200</v>
       </c>
       <c r="H8">
-        <v>-74.15000000000001</v>
+        <v>-95.45999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1440,7 +1440,7 @@
         <v>200</v>
       </c>
       <c r="H9">
-        <v>-91.64</v>
+        <v>-75.95999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1466,7 +1466,7 @@
         <v>200</v>
       </c>
       <c r="H10">
-        <v>-87.73999999999999</v>
+        <v>-70.03999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1492,33 +1492,7 @@
         <v>200</v>
       </c>
       <c r="H11">
-        <v>-70.03999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12">
-        <v>50</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <v>200</v>
-      </c>
-      <c r="H12">
-        <v>-46.33</v>
+        <v>-48.3</v>
       </c>
     </row>
   </sheetData>
